--- a/Result/HOG/Architecture/NN_architecture.xlsx
+++ b/Result/HOG/Architecture/NN_architecture.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ANN\Result\Number Of Node\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ANN\Result\HOG\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2891797D-DE8F-44BB-ADD7-0F0E268B0522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D84CCA-EA9F-428B-9EFF-9476E021B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0E4A4DA-33E9-455F-BF50-62895EFA7047}"/>
+    <workbookView xWindow="7896" yWindow="528" windowWidth="14904" windowHeight="10692" xr2:uid="{A0E4A4DA-33E9-455F-BF50-62895EFA7047}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,35 +455,35 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
-      <c r="B3">
-        <v>6370</v>
-      </c>
-      <c r="C3">
-        <v>12730</v>
-      </c>
-      <c r="D3">
-        <v>25450</v>
-      </c>
-      <c r="E3">
-        <v>50890</v>
-      </c>
-      <c r="F3">
-        <v>101770</v>
+      <c r="B3" s="1">
+        <v>14210</v>
+      </c>
+      <c r="C3" s="1">
+        <v>28410</v>
+      </c>
+      <c r="D3" s="1">
+        <v>56810</v>
+      </c>
+      <c r="E3" s="1">
+        <v>113610</v>
+      </c>
+      <c r="F3" s="1">
+        <v>227210</v>
       </c>
       <c r="G3" s="1">
-        <v>203530</v>
+        <v>454410</v>
       </c>
       <c r="H3" s="1">
-        <v>407050</v>
+        <v>908810</v>
       </c>
       <c r="I3" s="1">
-        <v>814090</v>
+        <v>1817610</v>
       </c>
       <c r="J3" s="1">
-        <v>1628170</v>
+        <v>3635210</v>
       </c>
       <c r="K3" s="1">
-        <v>3256330</v>
+        <v>7270410</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
@@ -491,34 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.89800000000000002</v>
+        <v>0.95879999999999999</v>
       </c>
       <c r="C4">
-        <v>0.91600000000000004</v>
+        <v>0.96519999999999995</v>
       </c>
       <c r="D4">
-        <v>0.94540000000000002</v>
+        <v>0.9708</v>
       </c>
       <c r="E4">
-        <v>0.9597</v>
+        <v>0.97219999999999995</v>
       </c>
       <c r="F4">
-        <v>0.96330000000000005</v>
+        <v>0.97470000000000001</v>
       </c>
       <c r="G4">
-        <v>0.96889999999999998</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="H4">
-        <v>0.96930000000000005</v>
+        <v>0.97819999999999996</v>
       </c>
       <c r="I4">
-        <v>0.97270000000000001</v>
+        <v>0.98050000000000004</v>
       </c>
       <c r="J4">
-        <v>0.97489999999999999</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="K4">
-        <v>0.97560000000000002</v>
+        <v>0.98180000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
@@ -602,37 +602,37 @@
         <v>0</v>
       </c>
       <c r="B8" s="1">
-        <v>109386</v>
+        <v>234826</v>
       </c>
       <c r="C8" s="1">
-        <v>118282</v>
+        <v>243722</v>
       </c>
       <c r="D8" s="1">
-        <v>136074</v>
+        <v>261514</v>
       </c>
       <c r="E8" s="1">
-        <v>235146</v>
+        <v>486026</v>
       </c>
       <c r="F8" s="1">
-        <v>269322</v>
+        <v>520202</v>
       </c>
       <c r="G8" s="1">
-        <v>337674</v>
+        <v>588554</v>
       </c>
       <c r="H8" s="1">
-        <v>535818</v>
+        <v>1037578</v>
       </c>
       <c r="I8" s="1">
-        <v>669706</v>
+        <v>1171466</v>
       </c>
       <c r="J8" s="1">
-        <v>937482</v>
+        <v>1439242</v>
       </c>
       <c r="K8" s="1">
-        <v>1333770</v>
+        <v>2337290</v>
       </c>
       <c r="L8" s="1">
-        <v>1863690</v>
+        <v>2867210</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.3">
@@ -640,37 +640,37 @@
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.96760000000000002</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="C9">
-        <v>0.96519999999999995</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="D9">
-        <v>0.96679999999999999</v>
+        <v>0.97760000000000002</v>
       </c>
       <c r="E9">
-        <v>0.96989999999999998</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="F9">
-        <v>0.96960000000000002</v>
+        <v>0.98</v>
       </c>
       <c r="G9">
-        <v>0.97130000000000005</v>
+        <v>0.98180000000000001</v>
       </c>
       <c r="H9">
-        <v>0.97419999999999995</v>
+        <v>0.98129999999999995</v>
       </c>
       <c r="I9">
-        <v>0.9748</v>
+        <v>0.97960000000000003</v>
       </c>
       <c r="J9">
-        <v>0.9738</v>
+        <v>0.97989999999999999</v>
       </c>
       <c r="K9">
-        <v>0.97609999999999997</v>
+        <v>0.98380000000000001</v>
       </c>
       <c r="L9">
-        <v>0.97430000000000005</v>
+        <v>0.98270000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -678,21 +678,30 @@
         <v>3</v>
       </c>
       <c r="B11">
+        <v>128</v>
+      </c>
+      <c r="C11">
+        <v>256</v>
+      </c>
+      <c r="D11">
+        <v>256</v>
+      </c>
+      <c r="E11">
+        <v>256</v>
+      </c>
+      <c r="F11">
+        <v>512</v>
+      </c>
+      <c r="G11">
+        <v>512</v>
+      </c>
+      <c r="H11">
         <v>1024</v>
       </c>
-      <c r="C11">
+      <c r="I11">
         <v>1024</v>
       </c>
-      <c r="D11">
-        <v>512</v>
-      </c>
-      <c r="E11">
-        <v>512</v>
-      </c>
-      <c r="F11">
-        <v>1024</v>
-      </c>
-      <c r="G11">
+      <c r="J11">
         <v>1024</v>
       </c>
     </row>
@@ -701,22 +710,31 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="C12">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="D12">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="E12">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="F12">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="G12">
-        <v>1024</v>
+        <v>512</v>
+      </c>
+      <c r="H12">
+        <v>512</v>
+      </c>
+      <c r="I12">
+        <v>256</v>
+      </c>
+      <c r="J12">
+        <v>512</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.3">
@@ -724,22 +742,31 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>1024</v>
+        <v>128</v>
       </c>
       <c r="C13">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="D13">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="E13">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="F13">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="G13">
-        <v>1024</v>
+        <v>256</v>
+      </c>
+      <c r="H13">
+        <v>256</v>
+      </c>
+      <c r="I13">
+        <v>256</v>
+      </c>
+      <c r="J13">
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
@@ -747,22 +774,31 @@
         <v>0</v>
       </c>
       <c r="B14" s="1">
-        <v>1864202</v>
+        <v>260234</v>
       </c>
       <c r="C14" s="1">
-        <v>2383370</v>
+        <v>502538</v>
       </c>
       <c r="D14" s="1">
-        <v>1457162</v>
+        <v>551818</v>
       </c>
       <c r="E14" s="1">
-        <v>1596426</v>
+        <v>585994</v>
       </c>
       <c r="F14" s="1">
-        <v>1596426</v>
+        <v>1103370</v>
       </c>
       <c r="G14" s="1">
-        <v>2913290</v>
+        <v>1300234</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2466058</v>
+      </c>
+      <c r="I14" s="1">
+        <v>2138122</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2399114</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
@@ -770,22 +806,31 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>0.97540000000000004</v>
+        <v>0.97740000000000005</v>
       </c>
       <c r="C15">
-        <v>0.97440000000000004</v>
+        <v>0.9788</v>
       </c>
       <c r="D15">
-        <v>0.97570000000000001</v>
+        <v>0.98160000000000003</v>
       </c>
       <c r="E15">
-        <v>0.97219999999999995</v>
+        <v>0.98199999999999998</v>
       </c>
       <c r="F15">
-        <v>0.95</v>
+        <v>0.98150000000000004</v>
       </c>
       <c r="G15">
-        <v>0.95</v>
+        <v>0.98180000000000001</v>
+      </c>
+      <c r="H15">
+        <v>0.98309999999999997</v>
+      </c>
+      <c r="I15">
+        <v>0.98119999999999996</v>
+      </c>
+      <c r="J15">
+        <v>0.98209999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/Result/HOG/Architecture/NN_architecture.xlsx
+++ b/Result/HOG/Architecture/NN_architecture.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ANN\Result\HOG\Architecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65D84CCA-EA9F-428B-9EFF-9476E021B769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6231E0DE-97E8-4EC6-8BDA-08F287EED870}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7896" yWindow="528" windowWidth="14904" windowHeight="10692" xr2:uid="{A0E4A4DA-33E9-455F-BF50-62895EFA7047}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A0E4A4DA-33E9-455F-BF50-62895EFA7047}"/>
   </bookViews>
   <sheets>
     <sheet name="Structure" sheetId="1" r:id="rId1"/>
@@ -407,7 +407,7 @@
   <dimension ref="A2:L15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
